--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,7 +19,7 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>CSUSHPINSA</t>
+    <t>Index</t>
   </si>
   <si>
     <t>NASDAQ100</t>
@@ -28,7 +28,7 @@
     <t>Interest_rate</t>
   </si>
   <si>
-    <t>WPUSI012011</t>
+    <t>cons_mat</t>
   </si>
   <si>
     <t>MORTGAGE30US</t>
